--- a/Coral Chart.xlsx
+++ b/Coral Chart.xlsx
@@ -17,17 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Variables</t>
   </si>
   <si>
+    <t>Growth</t>
+  </si>
+  <si>
     <t>Reproduction</t>
   </si>
   <si>
-    <t>Growth</t>
-  </si>
-  <si>
     <t>Unused</t>
   </si>
   <si>
@@ -40,6 +40,18 @@
     <t>maxHealth</t>
   </si>
   <si>
+    <t>livingCost5</t>
+  </si>
+  <si>
+    <t>growthFactor6</t>
+  </si>
+  <si>
+    <t>photoFactor7</t>
+  </si>
+  <si>
+    <t>Sensitivity10</t>
+  </si>
+  <si>
     <t>startingHealth2</t>
   </si>
   <si>
@@ -49,31 +61,25 @@
     <t>expansionCost4</t>
   </si>
   <si>
-    <t>livingCost5</t>
-  </si>
-  <si>
-    <t>growthFactor6</t>
-  </si>
-  <si>
-    <t>photoFactor7</t>
-  </si>
-  <si>
-    <t> (1-6)</t>
-  </si>
-  <si>
-    <t>(1-3) </t>
-  </si>
-  <si>
-    <t> (22-100)</t>
-  </si>
-  <si>
-    <t> (5-15)</t>
-  </si>
-  <si>
-    <t> (1-5) </t>
-  </si>
-  <si>
-    <t> (1-4) </t>
+    <t>(1-6)</t>
+  </si>
+  <si>
+    <t>(1-3)</t>
+  </si>
+  <si>
+    <t>(22-100)</t>
+  </si>
+  <si>
+    <t>(1-5)</t>
+  </si>
+  <si>
+    <t>(1-4)</t>
+  </si>
+  <si>
+    <t>(2-7)</t>
+  </si>
+  <si>
+    <t>(5-15)</t>
   </si>
   <si>
     <t>soilPreference8</t>
@@ -193,9 +199,6 @@
     </r>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Weed </t>
     </r>
@@ -247,28 +250,31 @@
     </r>
   </si>
   <si>
-    <t>Beginning health of new coral </t>
-  </si>
-  <si>
-    <t> Value at which coral divides (eg. creates new block).</t>
-  </si>
-  <si>
-    <t> Cost of reproducing</t>
-  </si>
-  <si>
-    <t>How many resources a coral uses to stay alive. </t>
-  </si>
-  <si>
-    <t>How quickly a coral grows </t>
-  </si>
-  <si>
-    <t>How well the coral grows at full light level. </t>
-  </si>
-  <si>
-    <t> Some soils are more nutritious than others. This contains how much benefit a type of soil gives the coral. </t>
+    <t>Beginning health of new coral</t>
+  </si>
+  <si>
+    <t>Value at which coral divides (eg. creates new block).</t>
+  </si>
+  <si>
+    <t>Cost of reproducing</t>
+  </si>
+  <si>
+    <t>How many resources a coral uses to stay alive.</t>
+  </si>
+  <si>
+    <t>How quickly a coral grows</t>
+  </si>
+  <si>
+    <t>How well the coral grows at full light level.</t>
+  </si>
+  <si>
+    <t>Some soils are more nutritious than others. This contains how much benefit a type of soil gives the coral.</t>
   </si>
   <si>
     <t>How much a coral likes/dislikes other types. It may dislike (-) one kind more than another, but it always likes (+) its own type</t>
+  </si>
+  <si>
+    <t>How sensitive a coral is to neighbors. When the number of a coral's neighbors reaches that level, it starts to hurt the coral.</t>
   </si>
 </sst>
 </file>
@@ -278,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,7 +326,7 @@
     <font>
       <i val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF999999"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -333,8 +339,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,19 +365,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558ED5"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FFB3B3B3"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -367,8 +376,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -380,29 +395,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDCE6F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -439,6 +448,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -467,6 +483,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
@@ -496,8 +519,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thin"/>
+      <right style="hair"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -511,6 +534,20 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -524,20 +561,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -576,7 +599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,35 +612,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,51 +640,103 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,55 +744,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,7 +796,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,7 +828,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -771,10 +842,10 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFDCE6F2"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -790,7 +861,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF8EB4E3"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -802,7 +873,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -820,29 +891,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1377551020408"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.1275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.9744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3979591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,50 +928,52 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -909,349 +982,384 @@
       <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>20</v>
       </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21" t="n">
+      <c r="A5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="I5" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="J5" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="n">
+      <c r="E6" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="23" t="n">
+      <c r="F6" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" s="33" t="n">
+        <v>85</v>
+      </c>
+      <c r="J7" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" s="22" t="n">
+      <c r="E8" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="J8" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="37" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" s="38" t="n">
+        <v>85</v>
+      </c>
+      <c r="J9" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="45" t="n">
         <v>25</v>
       </c>
-      <c r="F6" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="22" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>85</v>
-      </c>
-      <c r="F7" s="22" t="n">
+      <c r="D11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="22" t="n">
+      <c r="G11" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="45" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" s="22" t="n">
+      <c r="I11" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>70</v>
-      </c>
-      <c r="E9" s="30" t="n">
-        <v>85</v>
-      </c>
-      <c r="F9" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="35" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="36" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="A12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="A13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>37</v>
+      <c r="C16" s="53" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>38</v>
+      <c r="C17" s="53" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>39</v>
+      <c r="C18" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>40</v>
+      <c r="C19" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>41</v>
+      <c r="C20" s="53" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>42</v>
+      <c r="C21" s="53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>43</v>
+      <c r="C22" s="53" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>44</v>
+      <c r="C23" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
@@ -1268,7 +1376,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -1295,7 +1403,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>

--- a/Coral Chart.xlsx
+++ b/Coral Chart.xlsx
@@ -85,7 +85,7 @@
     <t>soilPreference8</t>
   </si>
   <si>
-    <t>preference9</t>
+    <t>coralPreference9</t>
   </si>
   <si>
     <r>
@@ -897,7 +897,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -912,7 +912,7 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0255102040816"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3979591836735"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9642857142857"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
